--- a/rh/FORMULÁRIO DISTRATO RCA.xlsx
+++ b/rh/FORMULÁRIO DISTRATO RCA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Analista Comercial\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COMERCIAL 04\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C050BDD6-7E9A-47DD-A4A5-5443500F5A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C8B1CA-DA5B-4DF9-BECB-F89E428A0305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rescisão-RCA" sheetId="13" r:id="rId1"/>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
   <si>
     <t>Data Admissão</t>
   </si>
@@ -628,20 +628,17 @@
     <t xml:space="preserve">TITULAR </t>
   </si>
   <si>
-    <t>Analista de Dp</t>
-  </si>
-  <si>
     <t>CARLOS ALBERTO DA COSTA</t>
   </si>
   <si>
-    <t>Fortaleza, 08 DE ABRIL 2025.</t>
+    <t>Gerente de RH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -651,6 +648,7 @@
     <numFmt numFmtId="169" formatCode="[$-416]d&quot; de &quot;mmmm&quot; de &quot;yyyy"/>
     <numFmt numFmtId="170" formatCode="&quot;R$ &quot;#,##0.00"/>
     <numFmt numFmtId="171" formatCode="000&quot;.&quot;000&quot;.&quot;000&quot;-&quot;00"/>
+    <numFmt numFmtId="172" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -1354,7 +1352,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection hidden="1"/>
@@ -1519,6 +1517,18 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
@@ -1693,7 +1703,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -1724,6 +1733,10 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="172" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1768,6 +1781,45 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1775,45 +1827,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1835,15 +1848,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2768,14 +2772,14 @@
   <sheetPr codeName="Plan1"/>
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="6" width="17" customWidth="1"/>
@@ -2783,6 +2787,7 @@
     <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" customWidth="1"/>
     <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="15.42578125" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="9" hidden="1" customWidth="1"/>
@@ -2798,10 +2803,10 @@
       <c r="E1" s="53"/>
       <c r="F1" s="53"/>
       <c r="I1" s="11"/>
-      <c r="O1" s="108">
+      <c r="O1" s="111">
         <v>1</v>
       </c>
-      <c r="P1" s="109" t="s">
+      <c r="P1" s="112" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2822,7 +2827,7 @@
       <c r="O2">
         <v>2</v>
       </c>
-      <c r="P2" s="109" t="s">
+      <c r="P2" s="112" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2841,17 +2846,17 @@
       <c r="O3">
         <v>3</v>
       </c>
-      <c r="P3" s="109" t="s">
+      <c r="P3" s="112" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="53"/>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
       <c r="E4" s="56" t="s">
         <v>6</v>
       </c>
@@ -2866,16 +2871,16 @@
       <c r="O4">
         <v>4</v>
       </c>
-      <c r="P4" s="109" t="s">
+      <c r="P4" s="112" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="53"/>
-      <c r="B5" s="137"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="128"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="130"/>
       <c r="F5" s="57"/>
       <c r="H5" s="36"/>
       <c r="I5" s="39"/>
@@ -2886,7 +2891,7 @@
       <c r="O5">
         <v>5</v>
       </c>
-      <c r="P5" s="109" t="s">
+      <c r="P5" s="112" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2897,48 +2902,48 @@
       <c r="D6" s="53"/>
       <c r="E6" s="53"/>
       <c r="F6" s="53"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="115">
+      <c r="H6" s="115"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="118"/>
+      <c r="O6" s="118">
         <v>6</v>
       </c>
-      <c r="P6" s="116" t="s">
+      <c r="P6" s="119" t="s">
         <v>80</v>
       </c>
-      <c r="Q6" s="115"/>
-      <c r="R6" s="115"/>
-      <c r="S6" s="115"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="118"/>
+      <c r="S6" s="118"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="53"/>
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="120"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115">
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="132"/>
+      <c r="N7" s="118"/>
+      <c r="O7" s="118">
         <v>7</v>
       </c>
-      <c r="P7" s="116" t="s">
+      <c r="P7" s="119" t="s">
         <v>81</v>
       </c>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
+      <c r="Q7" s="118"/>
+      <c r="R7" s="118"/>
+      <c r="S7" s="118"/>
     </row>
     <row r="8" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="53"/>
@@ -2947,18 +2952,18 @@
       <c r="D8" s="53"/>
       <c r="E8" s="53"/>
       <c r="F8" s="53"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="118"/>
+      <c r="P8" s="119"/>
+      <c r="Q8" s="118"/>
+      <c r="R8" s="118"/>
+      <c r="S8" s="118"/>
     </row>
     <row r="9" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="53"/>
@@ -2977,54 +2982,45 @@
       <c r="F9" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="114"/>
-      <c r="N9" s="115"/>
-      <c r="O9" s="115"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="115"/>
-      <c r="R9" s="115"/>
-      <c r="S9" s="115"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="119"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
     </row>
     <row r="10" spans="1:19" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="162">
-        <f>_xlfn.DAYS(C10,B10)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="163">
-        <f>(YEAR(C10)-YEAR(B10))*12 + MONTH(C10)-MONTH(B10)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="164">
-        <f>((YEAR(C10)-YEAR(B10))*12 + MONTH(C10)-MONTH(B10))/12</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="112"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="112"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="115"/>
-      <c r="O10" s="115"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="115"/>
-      <c r="R10" s="115"/>
-      <c r="S10" s="115"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="119"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
     </row>
     <row r="11" spans="1:19" ht="16.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="53"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="62"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="65"/>
       <c r="F11" s="53"/>
       <c r="H11" s="36"/>
       <c r="I11" s="39"/>
@@ -3032,23 +3028,23 @@
       <c r="K11" s="36"/>
       <c r="L11" s="36"/>
       <c r="M11" s="38"/>
-      <c r="P11" s="109"/>
+      <c r="P11" s="112"/>
     </row>
     <row r="12" spans="1:19" ht="44.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="53"/>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="64" t="s">
+      <c r="F12" s="67" t="s">
         <v>50</v>
       </c>
       <c r="H12" s="36"/>
@@ -3060,28 +3056,28 @@
       <c r="O12">
         <v>12</v>
       </c>
-      <c r="P12" s="109" t="s">
+      <c r="P12" s="112" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="53"/>
-      <c r="B13" s="129"/>
+      <c r="B13" s="131"/>
       <c r="C13" s="41">
         <f>B13/12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="65">
+      <c r="D13" s="68">
         <v>0</v>
       </c>
-      <c r="E13" s="65">
+      <c r="E13" s="68">
         <v>0</v>
       </c>
-      <c r="F13" s="65">
+      <c r="F13" s="68">
         <v>0</v>
       </c>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
@@ -3105,19 +3101,19 @@
     </row>
     <row r="15" spans="1:19" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="53"/>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="66" t="s">
+      <c r="E15" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="63" t="s">
+      <c r="F15" s="66" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="10"/>
@@ -3137,17 +3133,17 @@
         <f>B16/3</f>
         <v>0</v>
       </c>
-      <c r="D16" s="65">
+      <c r="D16" s="68">
         <v>0</v>
       </c>
-      <c r="E16" s="65">
+      <c r="E16" s="68">
         <v>0</v>
       </c>
-      <c r="F16" s="122">
+      <c r="F16" s="124">
         <f>C13-E16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="111"/>
+      <c r="G16" s="114"/>
       <c r="H16" s="40"/>
       <c r="I16" s="36"/>
       <c r="J16" s="36"/>
@@ -3161,7 +3157,7 @@
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
       <c r="E17" s="46"/>
-      <c r="F17" s="67"/>
+      <c r="F17" s="70"/>
       <c r="G17" s="10"/>
       <c r="H17" s="40"/>
       <c r="I17" s="36"/>
@@ -3172,13 +3168,13 @@
     </row>
     <row r="18" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="53"/>
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="75"/>
       <c r="G18" s="10"/>
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
@@ -3189,13 +3185,13 @@
     </row>
     <row r="19" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="53"/>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="74"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="80"/>
       <c r="G19" s="10"/>
       <c r="H19" s="36"/>
       <c r="I19" s="36"/>
@@ -3206,13 +3202,13 @@
     </row>
     <row r="20" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="53"/>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="10"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -3222,9 +3218,9 @@
     </row>
     <row r="21" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="53"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="75"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="78"/>
       <c r="E21" s="53"/>
       <c r="F21" s="53"/>
       <c r="G21" s="10"/>
@@ -3236,11 +3232,11 @@
     </row>
     <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="53"/>
-      <c r="B22" s="134" t="s">
+      <c r="B22" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="135"/>
-      <c r="D22" s="136"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="140"/>
       <c r="E22" s="53"/>
       <c r="F22" s="53"/>
       <c r="G22" s="10"/>
@@ -3252,11 +3248,11 @@
     </row>
     <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="53"/>
-      <c r="B23" s="84" t="s">
+      <c r="B23" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="85"/>
-      <c r="D23" s="86"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="89"/>
       <c r="E23" s="53"/>
       <c r="F23" s="53"/>
       <c r="G23" s="10"/>
@@ -3268,11 +3264,11 @@
     </row>
     <row r="24" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="53"/>
-      <c r="B24" s="87" t="s">
+      <c r="B24" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="88"/>
-      <c r="D24" s="89"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="92"/>
       <c r="E24" s="53"/>
       <c r="F24" s="53"/>
       <c r="G24" s="10"/>
@@ -3284,11 +3280,11 @@
     </row>
     <row r="25" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="53"/>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="88"/>
-      <c r="D25" s="89"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="92"/>
       <c r="E25" s="53"/>
       <c r="F25" s="53"/>
       <c r="G25" s="10"/>
@@ -3300,11 +3296,11 @@
     </row>
     <row r="26" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="53"/>
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="91"/>
-      <c r="D26" s="92"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="95"/>
       <c r="E26" s="53"/>
       <c r="F26" s="53"/>
       <c r="G26" s="10"/>
@@ -3313,15 +3309,15 @@
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
-      <c r="O26" s="107"/>
+      <c r="O26" s="110"/>
     </row>
     <row r="27" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="53"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="95"/>
-      <c r="D27" s="96"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="99"/>
       <c r="E27" s="53"/>
       <c r="F27" s="53"/>
       <c r="G27" s="10"/>
@@ -3333,11 +3329,11 @@
     </row>
     <row r="28" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="53"/>
-      <c r="B28" s="94" t="s">
+      <c r="B28" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="95"/>
-      <c r="D28" s="96"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="99"/>
       <c r="E28" s="53"/>
       <c r="F28" s="53"/>
       <c r="G28" s="10"/>
@@ -3349,9 +3345,9 @@
     </row>
     <row r="29" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="53"/>
-      <c r="B29" s="83"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="76"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="79"/>
       <c r="E29" s="53"/>
       <c r="F29" s="53"/>
       <c r="G29" s="10"/>
@@ -3363,9 +3359,9 @@
     </row>
     <row r="30" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="53"/>
-      <c r="B30" s="123"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="76"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="79"/>
       <c r="E30" s="53"/>
       <c r="F30" s="53"/>
       <c r="G30" s="10"/>
@@ -3377,11 +3373,12 @@
     </row>
     <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="53"/>
-      <c r="B31" s="123" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="124"/>
-      <c r="D31" s="76"/>
+      <c r="B31" s="133">
+        <f>C10</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="126"/>
+      <c r="D31" s="79"/>
       <c r="E31" s="53"/>
       <c r="F31" s="53"/>
       <c r="G31" s="10"/>
@@ -3393,11 +3390,11 @@
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="53"/>
-      <c r="B32" s="123"/>
-      <c r="C32" s="125"/>
+      <c r="B32" s="125"/>
+      <c r="C32" s="127"/>
       <c r="D32" s="53"/>
-      <c r="E32" s="133"/>
-      <c r="F32" s="133"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="137"/>
       <c r="G32" s="10"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
@@ -3407,8 +3404,8 @@
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="53"/>
-      <c r="B33" s="126"/>
-      <c r="C33" s="126"/>
+      <c r="B33" s="128"/>
+      <c r="C33" s="128"/>
       <c r="D33" s="53"/>
       <c r="E33" s="53"/>
       <c r="F33" s="53"/>
@@ -3416,16 +3413,16 @@
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="53"/>
-      <c r="B34" s="123"/>
-      <c r="C34" s="127"/>
+      <c r="B34" s="125"/>
+      <c r="C34" s="129"/>
       <c r="D34" s="53"/>
       <c r="E34" s="53"/>
       <c r="F34" s="53"/>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="53"/>
-      <c r="B35" s="123"/>
-      <c r="C35" s="127"/>
+      <c r="B35" s="125"/>
+      <c r="C35" s="129"/>
       <c r="D35" s="53"/>
       <c r="E35" s="53"/>
       <c r="F35" s="53"/>
@@ -3433,49 +3430,49 @@
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="53"/>
       <c r="B36" s="55"/>
-      <c r="C36" s="97"/>
+      <c r="C36" s="100"/>
       <c r="D36" s="53"/>
       <c r="E36" s="53"/>
       <c r="F36" s="53"/>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="53"/>
-      <c r="B37" s="140" t="s">
+      <c r="B37" s="144" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="140"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="99"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="102"/>
       <c r="G37" s="13"/>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="53"/>
-      <c r="B38" s="130" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="130"/>
+      <c r="B38" s="134" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="134"/>
       <c r="D38" s="55"/>
-      <c r="E38" s="130"/>
-      <c r="F38" s="130"/>
+      <c r="E38" s="134"/>
+      <c r="F38" s="134"/>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="53"/>
-      <c r="B39" s="130" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="130"/>
+      <c r="B39" s="134" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="134"/>
       <c r="D39" s="55"/>
-      <c r="E39" s="130"/>
-      <c r="F39" s="130"/>
+      <c r="E39" s="134"/>
+      <c r="F39" s="134"/>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="53"/>
-      <c r="B40" s="83"/>
-      <c r="C40" s="100"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="103"/>
       <c r="D40" s="53"/>
       <c r="E40" s="53"/>
-      <c r="F40" s="101"/>
+      <c r="F40" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3502,8 +3499,8 @@
   <sheetPr codeName="Plan2"/>
   <dimension ref="B1:AC28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:J14"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3520,94 +3517,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="Q1" s="148" t="s">
+      <c r="Q1" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149"/>
-      <c r="T1" s="149"/>
-      <c r="U1" s="150"/>
-      <c r="V1" s="151" t="s">
+      <c r="R1" s="156"/>
+      <c r="S1" s="156"/>
+      <c r="T1" s="156"/>
+      <c r="U1" s="157"/>
+      <c r="V1" s="145" t="s">
         <v>65</v>
       </c>
-      <c r="W1" s="152"/>
-      <c r="X1" s="152"/>
-      <c r="Y1" s="152"/>
-      <c r="Z1" s="153"/>
-      <c r="AA1" s="154" t="s">
+      <c r="W1" s="146"/>
+      <c r="X1" s="146"/>
+      <c r="Y1" s="146"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="154" t="s">
+      <c r="AB1" s="148" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="154" t="s">
+      <c r="AC1" s="148" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="2:29" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="P2" s="102" t="s">
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="P2" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="Q2" s="103" t="s">
+      <c r="Q2" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="R2" s="104" t="s">
+      <c r="R2" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="S2" s="104" t="s">
+      <c r="S2" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="T2" s="104" t="s">
+      <c r="T2" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="U2" s="105" t="s">
+      <c r="U2" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="V2" s="103" t="s">
+      <c r="V2" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="W2" s="104" t="s">
+      <c r="W2" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="X2" s="104" t="s">
+      <c r="X2" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="Y2" s="104" t="s">
+      <c r="Y2" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="Z2" s="105" t="s">
+      <c r="Z2" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="AA2" s="155"/>
-      <c r="AB2" s="155"/>
-      <c r="AC2" s="155"/>
+      <c r="AA2" s="149"/>
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="149"/>
     </row>
     <row r="3" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="145" t="s">
+      <c r="B3" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
       <c r="K3" s="12"/>
-      <c r="P3" s="106">
+      <c r="P3" s="109">
         <f>I6</f>
         <v>0</v>
       </c>
@@ -3661,15 +3658,15 @@
       </c>
     </row>
     <row r="4" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="142"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
-      <c r="J4" s="142"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
@@ -3692,11 +3689,11 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="147">
+      <c r="I6" s="153">
         <f>'Rescisão-RCA'!F16</f>
         <v>0</v>
       </c>
-      <c r="J6" s="147"/>
+      <c r="J6" s="153"/>
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.2">
@@ -3712,33 +3709,33 @@
       <c r="K7" s="12"/>
     </row>
     <row r="9" spans="2:29" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="144" t="str">
+      <c r="B9" s="154" t="str">
         <f>"Declaro pelo presente, que recebí da empresa ÔMEGA DISTRIBUIDORA DE PRODUTOS ALIMENTÍCIOS LTDA, CNPJ 41.600.131/0002-78, estabelecida à Rua Capitão Hugo Bezerra, 120 - Barroso, a quantia destacada de "&amp;TEXT(VALUE(I6),"R$ #.##0,00_)")&amp;" ("&amp;AC3&amp;") como pagamento final de todas as importâncias a que fiz jus durante o período em que trabalhei na qualidade de Representante para a citada empresa."</f>
         <v>Declaro pelo presente, que recebí da empresa ÔMEGA DISTRIBUIDORA DE PRODUTOS ALIMENTÍCIOS LTDA, CNPJ 41.600.131/0002-78, estabelecida à Rua Capitão Hugo Bezerra, 120 - Barroso, a quantia destacada de R$ 0,00  () como pagamento final de todas as importâncias a que fiz jus durante o período em que trabalhei na qualidade de Representante para a citada empresa.</v>
       </c>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="144"/>
-      <c r="J9" s="144"/>
-      <c r="K9" s="144"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="154"/>
+      <c r="K9" s="154"/>
     </row>
     <row r="10" spans="2:29" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="144" t="s">
+      <c r="B10" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="144"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="144"/>
-      <c r="I10" s="144"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="144"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="154"/>
+      <c r="K10" s="154"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
@@ -3749,18 +3746,18 @@
       <c r="E12" s="9"/>
     </row>
     <row r="14" spans="2:29" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="143" t="str">
-        <f>'Rescisão-RCA'!B31:C31</f>
-        <v>Fortaleza, 08 DE ABRIL 2025.</v>
-      </c>
-      <c r="C14" s="143"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="143"/>
+      <c r="B14" s="160">
+        <f>'Rescisão-RCA'!B31</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="160"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="160"/>
+      <c r="J14" s="160"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B15" s="12"/>
@@ -3796,29 +3793,29 @@
       <c r="J17" s="17"/>
     </row>
     <row r="18" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B18" s="142">
+      <c r="B18" s="159">
         <f>'Rescisão-RCA'!B5</f>
         <v>0</v>
       </c>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="142"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="159"/>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="142" t="s">
+      <c r="D19" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="159"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
     </row>
@@ -3829,11 +3826,11 @@
       <c r="E20" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="146">
+      <c r="F20" s="152">
         <f>'Rescisão-RCA'!E5</f>
         <v>0</v>
       </c>
-      <c r="G20" s="146"/>
+      <c r="G20" s="152"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
@@ -3909,9 +3906,9 @@
       <c r="J26" s="17"/>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="141"/>
-      <c r="C27" s="141"/>
-      <c r="D27" s="141"/>
+      <c r="B27" s="158"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="158"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
@@ -3932,22 +3929,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="Q1:U1"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="B14:J14"/>
     <mergeCell ref="B18:J18"/>
     <mergeCell ref="D19:H19"/>
     <mergeCell ref="B9:K9"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="B2:K2"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3989,11 +3986,11 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="158"/>
-      <c r="D4" s="159"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="163"/>
     </row>
     <row r="6" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
@@ -4073,12 +4070,12 @@
       <c r="D13" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="160" t="s">
+      <c r="E13" s="164" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="161"/>
-      <c r="G13" s="161"/>
-      <c r="H13" s="161"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="165"/>
     </row>
     <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">

--- a/rh/FORMULÁRIO DISTRATO RCA.xlsx
+++ b/rh/FORMULÁRIO DISTRATO RCA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COMERCIAL 04\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Analista Comercial\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C8B1CA-DA5B-4DF9-BECB-F89E428A0305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67296323-103D-4ABB-92AD-0F916F035F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rescisão-RCA" sheetId="13" r:id="rId1"/>
@@ -628,10 +628,10 @@
     <t xml:space="preserve">TITULAR </t>
   </si>
   <si>
+    <t>Analista de Dp</t>
+  </si>
+  <si>
     <t>CARLOS ALBERTO DA COSTA</t>
-  </si>
-  <si>
-    <t>Gerente de RH</t>
   </si>
 </sst>
 </file>
@@ -2772,8 +2772,8 @@
   <sheetPr codeName="Plan1"/>
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3449,7 +3449,7 @@
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="53"/>
       <c r="B38" s="134" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C38" s="134"/>
       <c r="D38" s="55"/>
@@ -3459,7 +3459,7 @@
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="53"/>
       <c r="B39" s="134" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C39" s="134"/>
       <c r="D39" s="55"/>
@@ -3499,8 +3499,8 @@
   <sheetPr codeName="Plan2"/>
   <dimension ref="B1:AC28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3746,9 +3746,9 @@
       <c r="E12" s="9"/>
     </row>
     <row r="14" spans="2:29" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="160">
-        <f>'Rescisão-RCA'!B31</f>
-        <v>0</v>
+      <c r="B14" s="160" t="str">
+        <f>"Fortaleza, " &amp; TEXT('Rescisão-RCA'!C10, "dd ""de"" mmmm ""de"" aaaa")</f>
+        <v>Fortaleza, 00 de janeiro de 1900</v>
       </c>
       <c r="C14" s="160"/>
       <c r="D14" s="160"/>

--- a/rh/FORMULÁRIO DISTRATO RCA.xlsx
+++ b/rh/FORMULÁRIO DISTRATO RCA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Analista Comercial\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67296323-103D-4ABB-92AD-0F916F035F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EF15C1-0D1F-4BD5-83B6-D2689956151B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1781,6 +1781,36 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1797,36 +1827,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2772,8 +2772,8 @@
   <sheetPr codeName="Plan1"/>
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3373,9 +3373,9 @@
     </row>
     <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="53"/>
-      <c r="B31" s="133">
-        <f>C10</f>
-        <v>0</v>
+      <c r="B31" s="133" t="str">
+        <f>TEXT(C10, "dd ""de"" mmmm ""de"" aaaa")</f>
+        <v>00 de janeiro de 1900</v>
       </c>
       <c r="C31" s="126"/>
       <c r="D31" s="79"/>
@@ -3500,7 +3500,7 @@
   <dimension ref="B1:AC28"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="B14" sqref="B14:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3517,43 +3517,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="Q1" s="155" t="s">
+      <c r="Q1" s="152" t="s">
         <v>64</v>
       </c>
-      <c r="R1" s="156"/>
-      <c r="S1" s="156"/>
-      <c r="T1" s="156"/>
-      <c r="U1" s="157"/>
-      <c r="V1" s="145" t="s">
+      <c r="R1" s="153"/>
+      <c r="S1" s="153"/>
+      <c r="T1" s="153"/>
+      <c r="U1" s="154"/>
+      <c r="V1" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="148" t="s">
+      <c r="W1" s="156"/>
+      <c r="X1" s="156"/>
+      <c r="Y1" s="156"/>
+      <c r="Z1" s="157"/>
+      <c r="AA1" s="158" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="148" t="s">
+      <c r="AB1" s="158" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="148" t="s">
+      <c r="AC1" s="158" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="2:29" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
       <c r="P2" s="105" t="s">
         <v>69</v>
       </c>
@@ -3587,22 +3587,22 @@
       <c r="Z2" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="AA2" s="149"/>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="149"/>
+      <c r="AA2" s="159"/>
+      <c r="AB2" s="159"/>
+      <c r="AC2" s="159"/>
     </row>
     <row r="3" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
       <c r="K3" s="12"/>
       <c r="P3" s="109">
         <f>I6</f>
@@ -3658,15 +3658,15 @@
       </c>
     </row>
     <row r="4" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="159"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
@@ -3689,11 +3689,11 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="153">
+      <c r="I6" s="151">
         <f>'Rescisão-RCA'!F16</f>
         <v>0</v>
       </c>
-      <c r="J6" s="153"/>
+      <c r="J6" s="151"/>
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.2">
@@ -3709,33 +3709,33 @@
       <c r="K7" s="12"/>
     </row>
     <row r="9" spans="2:29" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="154" t="str">
+      <c r="B9" s="148" t="str">
         <f>"Declaro pelo presente, que recebí da empresa ÔMEGA DISTRIBUIDORA DE PRODUTOS ALIMENTÍCIOS LTDA, CNPJ 41.600.131/0002-78, estabelecida à Rua Capitão Hugo Bezerra, 120 - Barroso, a quantia destacada de "&amp;TEXT(VALUE(I6),"R$ #.##0,00_)")&amp;" ("&amp;AC3&amp;") como pagamento final de todas as importâncias a que fiz jus durante o período em que trabalhei na qualidade de Representante para a citada empresa."</f>
         <v>Declaro pelo presente, que recebí da empresa ÔMEGA DISTRIBUIDORA DE PRODUTOS ALIMENTÍCIOS LTDA, CNPJ 41.600.131/0002-78, estabelecida à Rua Capitão Hugo Bezerra, 120 - Barroso, a quantia destacada de R$ 0,00  () como pagamento final de todas as importâncias a que fiz jus durante o período em que trabalhei na qualidade de Representante para a citada empresa.</v>
       </c>
-      <c r="C9" s="154"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="154"/>
-      <c r="I9" s="154"/>
-      <c r="J9" s="154"/>
-      <c r="K9" s="154"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="148"/>
+      <c r="K9" s="148"/>
     </row>
     <row r="10" spans="2:29" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="154" t="s">
+      <c r="B10" s="148" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="154"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="154"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="154"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="154"/>
-      <c r="K10" s="154"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="148"/>
+      <c r="K10" s="148"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
@@ -3746,18 +3746,18 @@
       <c r="E12" s="9"/>
     </row>
     <row r="14" spans="2:29" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="160" t="str">
+      <c r="B14" s="147" t="str">
         <f>"Fortaleza, " &amp; TEXT('Rescisão-RCA'!C10, "dd ""de"" mmmm ""de"" aaaa")</f>
         <v>Fortaleza, 00 de janeiro de 1900</v>
       </c>
-      <c r="C14" s="160"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="160"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="147"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="147"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B15" s="12"/>
@@ -3793,29 +3793,29 @@
       <c r="J17" s="17"/>
     </row>
     <row r="18" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B18" s="159">
+      <c r="B18" s="146">
         <f>'Rescisão-RCA'!B5</f>
         <v>0</v>
       </c>
-      <c r="C18" s="159"/>
-      <c r="D18" s="159"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="159"/>
-      <c r="I18" s="159"/>
-      <c r="J18" s="159"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="146"/>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="159" t="s">
+      <c r="D19" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="159"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="159"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
     </row>
@@ -3826,11 +3826,11 @@
       <c r="E20" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="152">
+      <c r="F20" s="150">
         <f>'Rescisão-RCA'!E5</f>
         <v>0</v>
       </c>
-      <c r="G20" s="152"/>
+      <c r="G20" s="150"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
@@ -3906,9 +3906,9 @@
       <c r="J26" s="17"/>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="158"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="158"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="145"/>
+      <c r="D27" s="145"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
@@ -3929,22 +3929,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="Q1:U1"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="B14:J14"/>
     <mergeCell ref="B18:J18"/>
     <mergeCell ref="D19:H19"/>
     <mergeCell ref="B9:K9"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="B2:K2"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/rh/FORMULÁRIO DISTRATO RCA.xlsx
+++ b/rh/FORMULÁRIO DISTRATO RCA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Analista Comercial\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COMERCIAL 04\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EF15C1-0D1F-4BD5-83B6-D2689956151B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8E1551-9DC0-4367-9CFD-42FC493EB1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rescisão-RCA" sheetId="13" r:id="rId1"/>
@@ -1734,9 +1734,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="172" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1781,6 +1778,45 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1788,45 +1824,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1848,6 +1845,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2773,7 +2773,7 @@
   <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2852,11 +2852,11 @@
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="53"/>
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
       <c r="E4" s="56" t="s">
         <v>6</v>
       </c>
@@ -2877,9 +2877,9 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="53"/>
-      <c r="B5" s="141"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="143"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="142"/>
       <c r="E5" s="130"/>
       <c r="F5" s="57"/>
       <c r="H5" s="36"/>
@@ -2921,13 +2921,13 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="53"/>
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
       <c r="H7" s="120"/>
       <c r="I7" s="121"/>
       <c r="J7" s="120"/>
@@ -3232,11 +3232,11 @@
     </row>
     <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="53"/>
-      <c r="B22" s="138" t="s">
+      <c r="B22" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="139"/>
-      <c r="D22" s="140"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="139"/>
       <c r="E22" s="53"/>
       <c r="F22" s="53"/>
       <c r="G22" s="10"/>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="53"/>
-      <c r="B31" s="133" t="str">
+      <c r="B31" s="165" t="str">
         <f>TEXT(C10, "dd ""de"" mmmm ""de"" aaaa")</f>
         <v>00 de janeiro de 1900</v>
       </c>
@@ -3393,8 +3393,8 @@
       <c r="B32" s="125"/>
       <c r="C32" s="127"/>
       <c r="D32" s="53"/>
-      <c r="E32" s="137"/>
-      <c r="F32" s="137"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="136"/>
       <c r="G32" s="10"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
@@ -3437,10 +3437,10 @@
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="53"/>
-      <c r="B37" s="144" t="s">
+      <c r="B37" s="143" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="144"/>
+      <c r="C37" s="143"/>
       <c r="D37" s="100"/>
       <c r="E37" s="101"/>
       <c r="F37" s="102"/>
@@ -3448,23 +3448,23 @@
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="53"/>
-      <c r="B38" s="134" t="s">
+      <c r="B38" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="134"/>
+      <c r="C38" s="133"/>
       <c r="D38" s="55"/>
-      <c r="E38" s="134"/>
-      <c r="F38" s="134"/>
+      <c r="E38" s="133"/>
+      <c r="F38" s="133"/>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="53"/>
-      <c r="B39" s="134" t="s">
+      <c r="B39" s="133" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="134"/>
+      <c r="C39" s="133"/>
       <c r="D39" s="55"/>
-      <c r="E39" s="134"/>
-      <c r="F39" s="134"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="133"/>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="53"/>
@@ -3489,6 +3489,9 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B31" unlockedFormula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -3517,43 +3520,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="Q1" s="152" t="s">
+      <c r="Q1" s="154" t="s">
         <v>64</v>
       </c>
-      <c r="R1" s="153"/>
-      <c r="S1" s="153"/>
-      <c r="T1" s="153"/>
-      <c r="U1" s="154"/>
-      <c r="V1" s="155" t="s">
+      <c r="R1" s="155"/>
+      <c r="S1" s="155"/>
+      <c r="T1" s="155"/>
+      <c r="U1" s="156"/>
+      <c r="V1" s="144" t="s">
         <v>65</v>
       </c>
-      <c r="W1" s="156"/>
-      <c r="X1" s="156"/>
-      <c r="Y1" s="156"/>
-      <c r="Z1" s="157"/>
-      <c r="AA1" s="158" t="s">
+      <c r="W1" s="145"/>
+      <c r="X1" s="145"/>
+      <c r="Y1" s="145"/>
+      <c r="Z1" s="146"/>
+      <c r="AA1" s="147" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="158" t="s">
+      <c r="AB1" s="147" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="158" t="s">
+      <c r="AC1" s="147" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="2:29" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
       <c r="P2" s="105" t="s">
         <v>69</v>
       </c>
@@ -3587,22 +3590,22 @@
       <c r="Z2" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="AA2" s="159"/>
-      <c r="AB2" s="159"/>
-      <c r="AC2" s="159"/>
+      <c r="AA2" s="148"/>
+      <c r="AB2" s="148"/>
+      <c r="AC2" s="148"/>
     </row>
     <row r="3" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="149" t="s">
+      <c r="B3" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
       <c r="K3" s="12"/>
       <c r="P3" s="109">
         <f>I6</f>
@@ -3658,15 +3661,15 @@
       </c>
     </row>
     <row r="4" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
@@ -3689,11 +3692,11 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="151">
+      <c r="I6" s="152">
         <f>'Rescisão-RCA'!F16</f>
         <v>0</v>
       </c>
-      <c r="J6" s="151"/>
+      <c r="J6" s="152"/>
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.2">
@@ -3709,33 +3712,33 @@
       <c r="K7" s="12"/>
     </row>
     <row r="9" spans="2:29" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="148" t="str">
+      <c r="B9" s="153" t="str">
         <f>"Declaro pelo presente, que recebí da empresa ÔMEGA DISTRIBUIDORA DE PRODUTOS ALIMENTÍCIOS LTDA, CNPJ 41.600.131/0002-78, estabelecida à Rua Capitão Hugo Bezerra, 120 - Barroso, a quantia destacada de "&amp;TEXT(VALUE(I6),"R$ #.##0,00_)")&amp;" ("&amp;AC3&amp;") como pagamento final de todas as importâncias a que fiz jus durante o período em que trabalhei na qualidade de Representante para a citada empresa."</f>
         <v>Declaro pelo presente, que recebí da empresa ÔMEGA DISTRIBUIDORA DE PRODUTOS ALIMENTÍCIOS LTDA, CNPJ 41.600.131/0002-78, estabelecida à Rua Capitão Hugo Bezerra, 120 - Barroso, a quantia destacada de R$ 0,00  () como pagamento final de todas as importâncias a que fiz jus durante o período em que trabalhei na qualidade de Representante para a citada empresa.</v>
       </c>
-      <c r="C9" s="148"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="148"/>
-      <c r="K9" s="148"/>
+      <c r="C9" s="153"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="153"/>
+      <c r="K9" s="153"/>
     </row>
     <row r="10" spans="2:29" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="148" t="s">
+      <c r="B10" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="148"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="148"/>
-      <c r="K10" s="148"/>
+      <c r="C10" s="153"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="153"/>
+      <c r="K10" s="153"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
@@ -3746,18 +3749,18 @@
       <c r="E12" s="9"/>
     </row>
     <row r="14" spans="2:29" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="147" t="str">
+      <c r="B14" s="159" t="str">
         <f>"Fortaleza, " &amp; TEXT('Rescisão-RCA'!C10, "dd ""de"" mmmm ""de"" aaaa")</f>
         <v>Fortaleza, 00 de janeiro de 1900</v>
       </c>
-      <c r="C14" s="147"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="147"/>
-      <c r="G14" s="147"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="147"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="159"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B15" s="12"/>
@@ -3793,29 +3796,29 @@
       <c r="J17" s="17"/>
     </row>
     <row r="18" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B18" s="146">
+      <c r="B18" s="158">
         <f>'Rescisão-RCA'!B5</f>
         <v>0</v>
       </c>
-      <c r="C18" s="146"/>
-      <c r="D18" s="146"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="146"/>
+      <c r="C18" s="158"/>
+      <c r="D18" s="158"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="158"/>
+      <c r="J18" s="158"/>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="146" t="s">
+      <c r="D19" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="146"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
     </row>
@@ -3826,11 +3829,11 @@
       <c r="E20" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="150">
+      <c r="F20" s="151">
         <f>'Rescisão-RCA'!E5</f>
         <v>0</v>
       </c>
-      <c r="G20" s="150"/>
+      <c r="G20" s="151"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
@@ -3906,9 +3909,9 @@
       <c r="J26" s="17"/>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="145"/>
-      <c r="C27" s="145"/>
-      <c r="D27" s="145"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="157"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
@@ -3929,22 +3932,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="Q1:U1"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="B14:J14"/>
     <mergeCell ref="B18:J18"/>
     <mergeCell ref="D19:H19"/>
     <mergeCell ref="B9:K9"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="B2:K2"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3986,11 +3989,11 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="162"/>
-      <c r="D4" s="163"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="162"/>
     </row>
     <row r="6" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
@@ -4070,12 +4073,12 @@
       <c r="D13" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="164" t="s">
+      <c r="E13" s="163" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="165"/>
-      <c r="G13" s="165"/>
-      <c r="H13" s="165"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="164"/>
     </row>
     <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">

--- a/rh/FORMULÁRIO DISTRATO RCA.xlsx
+++ b/rh/FORMULÁRIO DISTRATO RCA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COMERCIAL 04\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Analista Comercial\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8E1551-9DC0-4367-9CFD-42FC493EB1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE750BE-6752-486C-B3CA-221691DD2D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rescisão-RCA" sheetId="13" r:id="rId1"/>
@@ -628,10 +628,10 @@
     <t xml:space="preserve">TITULAR </t>
   </si>
   <si>
-    <t>Analista de Dp</t>
-  </si>
-  <si>
     <t>CARLOS ALBERTO DA COSTA</t>
+  </si>
+  <si>
+    <t>Gerente de RH</t>
   </si>
 </sst>
 </file>
@@ -1352,7 +1352,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection hidden="1"/>
@@ -1778,6 +1778,36 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1794,36 +1824,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1845,9 +1845,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2770,10 +2767,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Plan1"/>
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2997,11 +2994,24 @@
     </row>
     <row r="10" spans="1:19" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="62"/>
+      <c r="B10" s="15">
+        <v>35104</v>
+      </c>
+      <c r="C10" s="15">
+        <v>36295</v>
+      </c>
+      <c r="D10" s="60">
+        <f>IF(_xlfn.DAYS(C10,B10)=0,"Data incorreta",_xlfn.DAYS(C10,B10))</f>
+        <v>1191</v>
+      </c>
+      <c r="E10" s="61">
+        <f>IF((C10-B10)/30=0,"Data incorreta",((C10-B10)/30))</f>
+        <v>39.700000000000003</v>
+      </c>
+      <c r="F10" s="62">
+        <f>IF((C10-B10)/365=0,"Data incorreta",((C10-B10)/365))</f>
+        <v>3.2630136986301368</v>
+      </c>
       <c r="H10" s="115"/>
       <c r="I10" s="116"/>
       <c r="J10" s="115"/>
@@ -3371,16 +3381,16 @@
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
     </row>
-    <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="53"/>
-      <c r="B31" s="165" t="str">
-        <f>TEXT(C10, "dd ""de"" mmmm ""de"" aaaa")</f>
-        <v>00 de janeiro de 1900</v>
-      </c>
-      <c r="C31" s="126"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
+      <c r="B31" s="125" t="str">
+        <f>"Fortaleza, " &amp; TEXT(C10, "dd ""de"" mmmm ""de"" aaaa")</f>
+        <v>Fortaleza, 15 de maio de 1999</v>
+      </c>
+      <c r="C31" s="127"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
       <c r="G31" s="10"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
@@ -3390,26 +3400,20 @@
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="53"/>
-      <c r="B32" s="125"/>
-      <c r="C32" s="127"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="128"/>
       <c r="D32" s="53"/>
-      <c r="E32" s="136"/>
-      <c r="F32" s="136"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
       <c r="G32" s="10"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="53"/>
-      <c r="B33" s="128"/>
-      <c r="C33" s="128"/>
+      <c r="B33" s="125"/>
+      <c r="C33" s="129"/>
       <c r="D33" s="53"/>
       <c r="E33" s="53"/>
       <c r="F33" s="53"/>
-      <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="53"/>
@@ -3421,30 +3425,32 @@
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="53"/>
-      <c r="B35" s="125"/>
-      <c r="C35" s="129"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="100"/>
       <c r="D35" s="53"/>
       <c r="E35" s="53"/>
       <c r="F35" s="53"/>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="53"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
+      <c r="B36" s="143" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="143"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="53"/>
-      <c r="B37" s="143" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="143"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="13"/>
+      <c r="B37" s="133" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="133"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="133"/>
+      <c r="F37" s="133"/>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="53"/>
@@ -3458,34 +3464,24 @@
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="53"/>
-      <c r="B39" s="133" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="133"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="133"/>
-      <c r="F39" s="133"/>
-    </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="53"/>
-      <c r="B40" s="86"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="104"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:F37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="E38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="E39:F39"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B7:F7"/>
-    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>
@@ -3502,8 +3498,8 @@
   <sheetPr codeName="Plan2"/>
   <dimension ref="B1:AC28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:J14"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3520,43 +3516,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="Q1" s="154" t="s">
+      <c r="Q1" s="151" t="s">
         <v>64</v>
       </c>
-      <c r="R1" s="155"/>
-      <c r="S1" s="155"/>
-      <c r="T1" s="155"/>
-      <c r="U1" s="156"/>
-      <c r="V1" s="144" t="s">
+      <c r="R1" s="152"/>
+      <c r="S1" s="152"/>
+      <c r="T1" s="152"/>
+      <c r="U1" s="153"/>
+      <c r="V1" s="154" t="s">
         <v>65</v>
       </c>
-      <c r="W1" s="145"/>
-      <c r="X1" s="145"/>
-      <c r="Y1" s="145"/>
-      <c r="Z1" s="146"/>
-      <c r="AA1" s="147" t="s">
+      <c r="W1" s="155"/>
+      <c r="X1" s="155"/>
+      <c r="Y1" s="155"/>
+      <c r="Z1" s="156"/>
+      <c r="AA1" s="157" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="147" t="s">
+      <c r="AB1" s="157" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="147" t="s">
+      <c r="AC1" s="157" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="2:29" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
       <c r="P2" s="105" t="s">
         <v>69</v>
       </c>
@@ -3590,22 +3586,22 @@
       <c r="Z2" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="AA2" s="148"/>
-      <c r="AB2" s="148"/>
-      <c r="AC2" s="148"/>
+      <c r="AA2" s="158"/>
+      <c r="AB2" s="158"/>
+      <c r="AC2" s="158"/>
     </row>
     <row r="3" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
       <c r="K3" s="12"/>
       <c r="P3" s="109">
         <f>I6</f>
@@ -3661,15 +3657,15 @@
       </c>
     </row>
     <row r="4" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="158"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
@@ -3692,11 +3688,11 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="152">
+      <c r="I6" s="150">
         <f>'Rescisão-RCA'!F16</f>
         <v>0</v>
       </c>
-      <c r="J6" s="152"/>
+      <c r="J6" s="150"/>
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.2">
@@ -3712,33 +3708,33 @@
       <c r="K7" s="12"/>
     </row>
     <row r="9" spans="2:29" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="153" t="str">
+      <c r="B9" s="147" t="str">
         <f>"Declaro pelo presente, que recebí da empresa ÔMEGA DISTRIBUIDORA DE PRODUTOS ALIMENTÍCIOS LTDA, CNPJ 41.600.131/0002-78, estabelecida à Rua Capitão Hugo Bezerra, 120 - Barroso, a quantia destacada de "&amp;TEXT(VALUE(I6),"R$ #.##0,00_)")&amp;" ("&amp;AC3&amp;") como pagamento final de todas as importâncias a que fiz jus durante o período em que trabalhei na qualidade de Representante para a citada empresa."</f>
         <v>Declaro pelo presente, que recebí da empresa ÔMEGA DISTRIBUIDORA DE PRODUTOS ALIMENTÍCIOS LTDA, CNPJ 41.600.131/0002-78, estabelecida à Rua Capitão Hugo Bezerra, 120 - Barroso, a quantia destacada de R$ 0,00  () como pagamento final de todas as importâncias a que fiz jus durante o período em que trabalhei na qualidade de Representante para a citada empresa.</v>
       </c>
-      <c r="C9" s="153"/>
-      <c r="D9" s="153"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="153"/>
-      <c r="K9" s="153"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="147"/>
+      <c r="K9" s="147"/>
     </row>
     <row r="10" spans="2:29" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="153" t="s">
+      <c r="B10" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="153"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="153"/>
-      <c r="K10" s="153"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="147"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
@@ -3749,18 +3745,18 @@
       <c r="E12" s="9"/>
     </row>
     <row r="14" spans="2:29" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="159" t="str">
+      <c r="B14" s="146" t="str">
         <f>"Fortaleza, " &amp; TEXT('Rescisão-RCA'!C10, "dd ""de"" mmmm ""de"" aaaa")</f>
-        <v>Fortaleza, 00 de janeiro de 1900</v>
-      </c>
-      <c r="C14" s="159"/>
-      <c r="D14" s="159"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="159"/>
+        <v>Fortaleza, 15 de maio de 1999</v>
+      </c>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="146"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B15" s="12"/>
@@ -3796,29 +3792,29 @@
       <c r="J17" s="17"/>
     </row>
     <row r="18" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B18" s="158">
+      <c r="B18" s="145">
         <f>'Rescisão-RCA'!B5</f>
         <v>0</v>
       </c>
-      <c r="C18" s="158"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="158"/>
+      <c r="C18" s="145"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="145"/>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="158" t="s">
+      <c r="D19" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="145"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
     </row>
@@ -3829,11 +3825,11 @@
       <c r="E20" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="151">
+      <c r="F20" s="149">
         <f>'Rescisão-RCA'!E5</f>
         <v>0</v>
       </c>
-      <c r="G20" s="151"/>
+      <c r="G20" s="149"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
@@ -3909,9 +3905,9 @@
       <c r="J26" s="17"/>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="157"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="157"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="144"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
@@ -3932,22 +3928,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="Q1:U1"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="B14:J14"/>
     <mergeCell ref="B18:J18"/>
     <mergeCell ref="D19:H19"/>
     <mergeCell ref="B9:K9"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="B2:K2"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
